--- a/src/test/resources/ResponsiveED.xlsx
+++ b/src/test/resources/ResponsiveED.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapphirus\eclipse-workspace\ResponsiveEDAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\AutomationResponsiveED3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ResponsiveEd Institution</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Welcome1!</t>
+  </si>
+  <si>
+    <t>ResponsiveEd Institutions</t>
   </si>
 </sst>
 </file>
@@ -624,32 +624,32 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -664,30 +664,30 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
@@ -720,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -734,42 +734,42 @@
       <c r="K2" s="1"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="L3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ResponsiveED.xlsx
+++ b/src/test/resources/ResponsiveED.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>UserNames</t>
   </si>
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,6 +772,83 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
